--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.748846</v>
+        <v>1.742479666666667</v>
       </c>
       <c r="H2">
-        <v>8.246537999999999</v>
+        <v>5.227439</v>
       </c>
       <c r="I2">
-        <v>0.1900189725460084</v>
+        <v>0.1294580684571358</v>
       </c>
       <c r="J2">
-        <v>0.1900189725460084</v>
+        <v>0.1294580684571358</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.633247</v>
+        <v>2.989238333333333</v>
       </c>
       <c r="N2">
-        <v>7.899741</v>
+        <v>8.967715</v>
       </c>
       <c r="O2">
-        <v>0.2470706468821852</v>
+        <v>0.2714069173313896</v>
       </c>
       <c r="P2">
-        <v>0.2470706468821852</v>
+        <v>0.2714069173313896</v>
       </c>
       <c r="Q2">
-        <v>7.238390482961999</v>
+        <v>5.208687014653889</v>
       </c>
       <c r="R2">
-        <v>65.14551434665799</v>
+        <v>46.878183131885</v>
       </c>
       <c r="S2">
-        <v>0.04694811046683049</v>
+        <v>0.03513581528362723</v>
       </c>
       <c r="T2">
-        <v>0.04694811046683049</v>
+        <v>0.03513581528362723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.748846</v>
+        <v>1.742479666666667</v>
       </c>
       <c r="H3">
-        <v>8.246537999999999</v>
+        <v>5.227439</v>
       </c>
       <c r="I3">
-        <v>0.1900189725460084</v>
+        <v>0.1294580684571358</v>
       </c>
       <c r="J3">
-        <v>0.1900189725460084</v>
+        <v>0.1294580684571358</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>15.339702</v>
       </c>
       <c r="O3">
-        <v>0.4797613106708119</v>
+        <v>0.4642544095794917</v>
       </c>
       <c r="P3">
-        <v>0.479761310670812</v>
+        <v>0.4642544095794917</v>
       </c>
       <c r="Q3">
-        <v>14.055492827964</v>
+        <v>8.909706275908666</v>
       </c>
       <c r="R3">
-        <v>126.499435451676</v>
+        <v>80.18735648317801</v>
       </c>
       <c r="S3">
-        <v>0.09116375132099402</v>
+        <v>0.06010147913686901</v>
       </c>
       <c r="T3">
-        <v>0.09116375132099401</v>
+        <v>0.06010147913686899</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.748846</v>
+        <v>1.742479666666667</v>
       </c>
       <c r="H4">
-        <v>8.246537999999999</v>
+        <v>5.227439</v>
       </c>
       <c r="I4">
-        <v>0.1900189725460084</v>
+        <v>0.1294580684571358</v>
       </c>
       <c r="J4">
-        <v>0.1900189725460084</v>
+        <v>0.1294580684571358</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>8.734169</v>
       </c>
       <c r="O4">
-        <v>0.2731680424470029</v>
+        <v>0.2643386730891187</v>
       </c>
       <c r="P4">
-        <v>0.2731680424470029</v>
+        <v>0.2643386730891186</v>
       </c>
       <c r="Q4">
-        <v>8.002961839657999</v>
+        <v>5.073037295910112</v>
       </c>
       <c r="R4">
-        <v>72.02665655692199</v>
+        <v>45.657335663191</v>
       </c>
       <c r="S4">
-        <v>0.0519071107581839</v>
+        <v>0.03422077403663957</v>
       </c>
       <c r="T4">
-        <v>0.05190711075818388</v>
+        <v>0.03422077403663955</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>22.87504</v>
       </c>
       <c r="I5">
-        <v>0.5270928961642867</v>
+        <v>0.5665027357143181</v>
       </c>
       <c r="J5">
-        <v>0.5270928961642866</v>
+        <v>0.5665027357143181</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.633247</v>
+        <v>2.989238333333333</v>
       </c>
       <c r="N5">
-        <v>7.899741</v>
+        <v>8.967715</v>
       </c>
       <c r="O5">
-        <v>0.2470706468821852</v>
+        <v>0.2714069173313896</v>
       </c>
       <c r="P5">
-        <v>0.2470706468821852</v>
+        <v>0.2714069173313896</v>
       </c>
       <c r="Q5">
-        <v>20.07854348496</v>
+        <v>22.79298214817777</v>
       </c>
       <c r="R5">
-        <v>180.70689136464</v>
+        <v>205.1368393336</v>
       </c>
       <c r="S5">
-        <v>0.1302291828223148</v>
+        <v>0.153752761160022</v>
       </c>
       <c r="T5">
-        <v>0.1302291828223148</v>
+        <v>0.153752761160022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>22.87504</v>
       </c>
       <c r="I6">
-        <v>0.5270928961642867</v>
+        <v>0.5665027357143181</v>
       </c>
       <c r="J6">
-        <v>0.5270928961642866</v>
+        <v>0.5665027357143181</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>15.339702</v>
       </c>
       <c r="O6">
-        <v>0.4797613106708119</v>
+        <v>0.4642544095794917</v>
       </c>
       <c r="P6">
-        <v>0.479761310670812</v>
+        <v>0.4642544095794917</v>
       </c>
       <c r="Q6">
         <v>38.98847742645332</v>
@@ -818,10 +818,10 @@
         <v>350.8962968380799</v>
       </c>
       <c r="S6">
-        <v>0.2528787787090523</v>
+        <v>0.2630013930942176</v>
       </c>
       <c r="T6">
-        <v>0.2528787787090523</v>
+        <v>0.2630013930942176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>22.87504</v>
       </c>
       <c r="I7">
-        <v>0.5270928961642867</v>
+        <v>0.5665027357143181</v>
       </c>
       <c r="J7">
-        <v>0.5270928961642866</v>
+        <v>0.5665027357143181</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>8.734169</v>
       </c>
       <c r="O7">
-        <v>0.2731680424470029</v>
+        <v>0.2643386730891187</v>
       </c>
       <c r="P7">
-        <v>0.2731680424470029</v>
+        <v>0.2643386730891186</v>
       </c>
       <c r="Q7">
         <v>22.19938502686222</v>
@@ -880,10 +880,10 @@
         <v>199.79446524176</v>
       </c>
       <c r="S7">
-        <v>0.1439849346329195</v>
+        <v>0.1497485814600785</v>
       </c>
       <c r="T7">
-        <v>0.1439849346329195</v>
+        <v>0.1497485814600785</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>12.27692</v>
       </c>
       <c r="I8">
-        <v>0.282888131289705</v>
+        <v>0.3040391958285462</v>
       </c>
       <c r="J8">
-        <v>0.282888131289705</v>
+        <v>0.3040391958285461</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.633247</v>
+        <v>2.989238333333333</v>
       </c>
       <c r="N8">
-        <v>7.899741</v>
+        <v>8.967715</v>
       </c>
       <c r="O8">
-        <v>0.2470706468821852</v>
+        <v>0.2714069173313896</v>
       </c>
       <c r="P8">
-        <v>0.2470706468821852</v>
+        <v>0.2714069173313896</v>
       </c>
       <c r="Q8">
-        <v>10.77605425308</v>
+        <v>12.23287995975556</v>
       </c>
       <c r="R8">
-        <v>96.98448827772</v>
+        <v>110.0959196378</v>
       </c>
       <c r="S8">
-        <v>0.06989335359303996</v>
+        <v>0.0825183408877404</v>
       </c>
       <c r="T8">
-        <v>0.06989335359303996</v>
+        <v>0.08251834088774039</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>12.27692</v>
       </c>
       <c r="I9">
-        <v>0.282888131289705</v>
+        <v>0.3040391958285462</v>
       </c>
       <c r="J9">
-        <v>0.282888131289705</v>
+        <v>0.3040391958285461</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>15.339702</v>
       </c>
       <c r="O9">
-        <v>0.4797613106708119</v>
+        <v>0.4642544095794917</v>
       </c>
       <c r="P9">
-        <v>0.479761310670812</v>
+        <v>0.4642544095794917</v>
       </c>
       <c r="Q9">
         <v>20.92492158642666</v>
@@ -1004,10 +1004,10 @@
         <v>188.32429427784</v>
       </c>
       <c r="S9">
-        <v>0.1357187806407656</v>
+        <v>0.1411515373484052</v>
       </c>
       <c r="T9">
-        <v>0.1357187806407656</v>
+        <v>0.1411515373484051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>12.27692</v>
       </c>
       <c r="I10">
-        <v>0.282888131289705</v>
+        <v>0.3040391958285462</v>
       </c>
       <c r="J10">
-        <v>0.282888131289705</v>
+        <v>0.3040391958285461</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>8.734169</v>
       </c>
       <c r="O10">
-        <v>0.2731680424470029</v>
+        <v>0.2643386730891187</v>
       </c>
       <c r="P10">
-        <v>0.2731680424470029</v>
+        <v>0.2643386730891186</v>
       </c>
       <c r="Q10">
         <v>11.91429934216444</v>
@@ -1066,10 +1066,10 @@
         <v>107.22869407948</v>
       </c>
       <c r="S10">
-        <v>0.07727599705589946</v>
+        <v>0.0803693175924006</v>
       </c>
       <c r="T10">
-        <v>0.07727599705589945</v>
+        <v>0.08036931759240057</v>
       </c>
     </row>
   </sheetData>
